--- a/resault_table.xlsx
+++ b/resault_table.xlsx
@@ -1,28 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="765" yWindow="270" windowWidth="27390" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>f(n)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -34,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,25 +65,154 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +250,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +495,654 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:CX3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:102" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1">
+        <v>17</v>
+      </c>
+      <c r="T2" s="1">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1">
+        <v>19</v>
+      </c>
+      <c r="V2" s="1">
+        <v>20</v>
+      </c>
+      <c r="W2" s="1">
+        <v>21</v>
+      </c>
+      <c r="X2" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>59</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>60</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>61</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>62</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>63</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>64</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>65</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>66</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>67</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>68</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>69</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>70</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>71</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>72</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>73</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>74</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>75</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>76</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>77</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>78</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>79</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>80</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>81</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>82</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>83</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>84</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>85</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>86</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>87</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>88</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>89</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>90</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>91</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>92</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>93</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>94</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>95</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>99</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1.00016593933105E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>9.9921226501464792E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>9.9968910217285104E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.0012130737304601E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.0004978179931599E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.0012130737304601E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4.00280952453613E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1.99723243713378E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5.0034523010253899E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>4.0011405944824198E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>7.9970359802246094E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2.9981136322021401E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>7.0056915283203097E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>9.0069770812988198E-2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.100016593933105</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0.120012760162353</v>
+      </c>
+      <c r="U3" s="3">
+        <v>9.9980831146240207E-2</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8.0103874206542899E-2</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.130064487457275</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.110096931457519</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.130047798156738</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.19989013671875</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0.179989337921142</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0.149781703948974</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0.16999006271362299</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.22007703781127899</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0.179939270019531</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.32998085021972601</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0.29019832611083901</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0.32992124557495101</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0.391693115234375</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0.31545400619506803</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0.33997297286987299</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0.33556222915649397</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0.449769496917724</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0.38988590240478499</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>0.35002231597900302</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>0.36999225616455</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>0.390124320983886</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>0.61012029647827104</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>0.46022653579711897</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>0.51031827926635698</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0.56025743484497004</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>0.54018735885620095</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>0.60005664825439398</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>0.65973043441772405</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>0.54026842117309504</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>0.65007209777831998</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>0.605349540710449</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0.73635101318359297</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>0.79070568084716797</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>0.70060491561889604</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>0.73017120361328103</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>0.84960699081420898</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>0.86108207702636697</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>0.87027549743652299</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>0.83450555801391602</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>0.83033800125122004</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>1.0266923904418901</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>1.0369563102722099</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>0.99203348159789995</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>1.1707329750061</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>1.2395691871643</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>0.99014520645141602</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>1.0364031791687001</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>1.1202573776245099</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>1.09001636505126</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>1.2404704093933101</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>1.24667644500732</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>1.18959665298461</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>1.33032798767089</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>1.29984378814697</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>1.27090692520141</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>1.2503457069396899</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>1.6486072540283201</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>1.4097142219543399</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>1.69910907745361</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>1.92645788192749</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>1.5087532997131301</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>1.9285798072814899</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>1.7808985710144001</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>1.69109582901</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>1.77001953125</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>1.6398191452026301</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>1.9621825218200599</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>1.8502068519592201</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>2.07061767578125</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>1.80994272232055</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>1.8397521972656199</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>2.4657964706420898</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>2.1114373207092201</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>2.1304249763488698</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>2.3811006546020499</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>2.5472283363342201</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>2.2812438011169398</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>2.0804238319396902</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>2.2812294960021902</v>
+      </c>
+      <c r="CX3" s="4">
+        <v>2.2001814842224099</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resault_table.xlsx
+++ b/resault_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="270" windowWidth="27390" windowHeight="12195"/>
+    <workbookView xWindow="-225" yWindow="-90" windowWidth="27390" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>n</t>
   </si>
   <si>
     <t>f(n)</t>
+  </si>
+  <si>
+    <t>t_mean</t>
+  </si>
+  <si>
+    <t>s_2</t>
+  </si>
+  <si>
+    <t>f_down</t>
+  </si>
+  <si>
+    <t>f_up</t>
   </si>
 </sst>
 </file>
@@ -185,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -195,6 +207,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -207,6 +224,1524 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600"/>
+              <a:t>Уравнение регрессии</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" baseline="0"/>
+              <a:t> для </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>𝒕</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> ̅</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14998337707786527"/>
+                  <c:y val="0.46542760279965012"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$10:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$11:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.101982974308903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20095232792286999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33490254133870201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25798645865120501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34994763259670603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31835057655430599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39298883610692897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38124924946690197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44122430787070499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.444589775123515</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40999310828887198</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49248910939935697</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39319489251755302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.415150381676061</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45499395978402402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47937821713232998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.520795569788712</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46648814081154399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39216753807539001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="150530304"/>
+        <c:axId val="150529728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="150530304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150529728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150529728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150530304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600"/>
+              <a:t>Уравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" baseline="0"/>
+              <a:t> регрессии для </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>s</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>²</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1525667104111986"/>
+                  <c:y val="-0.42390419947506564"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$15:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$16:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.1657081901803703E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.160683513766469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.222868268663762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4994197550827998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9048542653872294E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0586208165130701E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7252291615075997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9490394604272201E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.00124366781012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.52751008603554E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9029600850020499E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2326041899643899E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6528879087871E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.38830694381768E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6279992279199402E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.96346000360355E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6563419627298801E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9623490516528E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0328042421685601E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="150535488"/>
+        <c:axId val="150534912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="150535488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150534912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150534912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150535488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Уравнение регрессии для </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>f_down</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.29659776902887142"/>
+                  <c:y val="-9.733887430737824E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr>
+                      <a:solidFill>
+                        <a:schemeClr val="dk1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$37:$U$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$38:$U$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99930572509765E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9998760223388602E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9997310638427707E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9993476867675698E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12996912002563399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15990257263183499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20994186401367099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22997617721557601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28002262115478499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.319960117340087</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.37997961044311501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.440003871917724</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53996324539184504</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.60988426208496005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66998958587646396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74998855590820301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.83000421524047796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309677440"/>
+        <c:axId val="309676864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309677440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="309676864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309676864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Трудоёмкость</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="309677440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Уравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> регрессии для </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>f_up</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19854605647296247"/>
+                  <c:y val="-1.504251968503937E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200">
+                        <a:solidFill>
+                          <a:schemeClr val="dk1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>y = 0,0004x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="30000"/>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t> + 0,004x + 0,1224
+R² = 0,986</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$42:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$43:$U$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.13001918792724601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.289993286132812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.319976806640625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.370008945465087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71000337600707997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62000989913940396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89995384216308505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2101030349731401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.43999576568603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5899729728698699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6000008583068801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.88005924224853</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2399520874023402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4898481369018501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.77005910873413</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1700205802917401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2299494743347101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6999726295471098</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6900820732116699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309679744"/>
+        <c:axId val="309679168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="309679744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="309679168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="309679168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Трудоёмкость</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="309679744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.5</cdr:x>
+      <cdr:y>0.08681</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7</cdr:x>
+      <cdr:y>0.42014</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2286000" y="238125"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CX3"/>
+  <dimension ref="B1:CX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42:U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,309 +2353,810 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
+        <v>1.6993999481201101E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.4008502960205002E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.8014144897460896E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8.6985588073730403E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.51023149490356E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.9702577590942301E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2.1197414398193299E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.2999310493469202E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>2.6398849487304601E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3.1899380683898901E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4.74991798400878E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5.28003931045532E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>5.8201980590820303E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>5.2299809455871503E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>6.6402792930603E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>7.3799800872802704E-2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>7.7098536491394004E-2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>8.8702583312988206E-2</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0.102601218223571</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.114599013328552</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.123000431060791</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0.12859730720519999</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.14479444026947</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.14079942703247</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0.16400506496429401</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0.19710006713867101</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0.208301138877868</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0.18870277404785099</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>0.27660214900970398</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0.22939646244049</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0.23620080947875899</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>0.24429800510406399</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>0.28999929428100502</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>0.29260141849517801</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>0.34929747581481901</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>0.30110347270965498</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>0.30830242633819499</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>0.35649452209472599</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>0.34199483394622798</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>0.38349781036376901</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>0.421506381034851</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>0.41449894905090301</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>0.47279765605926499</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>0.487003684043884</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>0.45130105018615702</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>0.50440530776977499</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>0.55439374446868805</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>0.52780067920684803</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>0.54110863208770699</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>0.55729882717132495</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>0.642900967597961</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>0.63350291252136204</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>0.69370441436767505</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>0.62149481773376403</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>0.69840230941772397</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>0.75180659294128405</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>0.72099699974060005</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>0.78649990558624205</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>0.81139020919799798</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>0.86589629650115896</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>0.871604871749877</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>0.91730051040649396</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>0.877904105186462</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>0.90490369796752901</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>0.96719667911529505</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>1.0147034168243401</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>1.07940018177032</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>0.99970362186431805</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>1.0963013410568201</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>1.14729902744293</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>1.0529063463210999</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>1.21950895786285</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>1.15219254493713</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>1.24310059547424</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>1.28670074939727</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>1.3348060369491499</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>1.29130461215972</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>1.40619211196899</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>1.4141091108322099</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>1.3949023723602201</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>1.4790981531143099</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>1.5171031713485701</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>1.6098035097122101</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>1.55859835147857</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>1.57820539474487</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>1.5535021781921301</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>1.6982997655868499</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>1.82980134487152</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>1.7560905694961499</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>1.67800676822662</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>1.84459800720214</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>1.9763002395629801</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>1.8540066719055099</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>1.95990257263183</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>1.9967042922973599</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>2.0998072147369302</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>2.1102948188781698</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>2.0973026514053301</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>2.13689477443695</v>
+      </c>
+      <c r="CX3" s="4">
+        <v>2.19569969177246</v>
+      </c>
+    </row>
+    <row r="9" spans="2:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:102" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
-        <v>1.00016593933105E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>9.9921226501464792E-3</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="C10" s="5">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1">
+        <v>50</v>
+      </c>
+      <c r="L10" s="1">
+        <v>55</v>
+      </c>
+      <c r="M10" s="1">
+        <v>60</v>
+      </c>
+      <c r="N10" s="1">
+        <v>65</v>
+      </c>
+      <c r="O10" s="1">
+        <v>70</v>
+      </c>
+      <c r="P10" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>80</v>
+      </c>
+      <c r="R10" s="1">
+        <v>85</v>
+      </c>
+      <c r="S10" s="1">
+        <v>90</v>
+      </c>
+      <c r="T10" s="1">
+        <v>95</v>
+      </c>
+      <c r="U10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.101982974308903</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.20095232792286999</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.33490254133870201</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.25798645865120501</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.34994763259670603</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.31835057655430599</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.39298883610692897</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.38124924946690197</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0.44122430787070499</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.444589775123515</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.40999310828887198</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.49248910939935697</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.39319489251755302</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.415150381676061</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.45499395978402402</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.47937821713232998</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0.520795569788712</v>
+      </c>
+      <c r="T11" s="9">
+        <v>0.46648814081154399</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0.39216753807539001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:102" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <v>9.9968910217285104E-3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>3.0012130737304601E-2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3.0004978179931599E-2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3.0012130737304601E-2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>4.00280952453613E-2</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1.99723243713378E-2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>5.0034523010253899E-2</v>
-      </c>
-      <c r="N3" s="3">
-        <v>4.0011405944824198E-2</v>
-      </c>
-      <c r="O3" s="3">
-        <v>7.9970359802246094E-2</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2.9981136322021401E-2</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>7.0056915283203097E-2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>9.0069770812988198E-2</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0.100016593933105</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0.120012760162353</v>
-      </c>
-      <c r="U3" s="3">
-        <v>9.9980831146240207E-2</v>
-      </c>
-      <c r="V3" s="3">
-        <v>8.0103874206542899E-2</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0.130064487457275</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0.110096931457519</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0.130047798156738</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0.19989013671875</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0.179989337921142</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>0.149781703948974</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>0.16999006271362299</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>0.22007703781127899</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>0.179939270019531</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0.32998085021972601</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>0.29019832611083901</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>0.32992124557495101</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>0.391693115234375</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>0.31545400619506803</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>0.33997297286987299</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>0.33556222915649397</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>0.449769496917724</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>0.38988590240478499</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>0.35002231597900302</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>0.36999225616455</v>
-      </c>
-      <c r="AQ3" s="3">
-        <v>0.390124320983886</v>
-      </c>
-      <c r="AR3" s="3">
-        <v>0.61012029647827104</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>0.46022653579711897</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>0.51031827926635698</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>0.56025743484497004</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>0.54018735885620095</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>0.60005664825439398</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>0.65973043441772405</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>0.54026842117309504</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>0.65007209777831998</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>0.605349540710449</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>0.73635101318359297</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>0.79070568084716797</v>
-      </c>
-      <c r="BD3" s="3">
-        <v>0.70060491561889604</v>
-      </c>
-      <c r="BE3" s="3">
-        <v>0.73017120361328103</v>
-      </c>
-      <c r="BF3" s="3">
-        <v>0.84960699081420898</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>0.86108207702636697</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>0.87027549743652299</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>0.83450555801391602</v>
-      </c>
-      <c r="BJ3" s="3">
-        <v>0.83033800125122004</v>
-      </c>
-      <c r="BK3" s="3">
-        <v>1.0266923904418901</v>
-      </c>
-      <c r="BL3" s="3">
-        <v>1.0369563102722099</v>
-      </c>
-      <c r="BM3" s="3">
-        <v>0.99203348159789995</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>1.1707329750061</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>1.2395691871643</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>0.99014520645141602</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>1.0364031791687001</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>1.1202573776245099</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>1.09001636505126</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>1.2404704093933101</v>
-      </c>
-      <c r="BU3" s="3">
-        <v>1.24667644500732</v>
-      </c>
-      <c r="BV3" s="3">
-        <v>1.18959665298461</v>
-      </c>
-      <c r="BW3" s="3">
-        <v>1.33032798767089</v>
-      </c>
-      <c r="BX3" s="3">
-        <v>1.29984378814697</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>1.27090692520141</v>
-      </c>
-      <c r="BZ3" s="3">
-        <v>1.2503457069396899</v>
-      </c>
-      <c r="CA3" s="3">
-        <v>1.6486072540283201</v>
-      </c>
-      <c r="CB3" s="3">
-        <v>1.4097142219543399</v>
-      </c>
-      <c r="CC3" s="3">
-        <v>1.69910907745361</v>
-      </c>
-      <c r="CD3" s="3">
-        <v>1.92645788192749</v>
-      </c>
-      <c r="CE3" s="3">
-        <v>1.5087532997131301</v>
-      </c>
-      <c r="CF3" s="3">
-        <v>1.9285798072814899</v>
-      </c>
-      <c r="CG3" s="3">
-        <v>1.7808985710144001</v>
-      </c>
-      <c r="CH3" s="3">
-        <v>1.69109582901</v>
-      </c>
-      <c r="CI3" s="3">
-        <v>1.77001953125</v>
-      </c>
-      <c r="CJ3" s="3">
-        <v>1.6398191452026301</v>
-      </c>
-      <c r="CK3" s="3">
-        <v>1.9621825218200599</v>
-      </c>
-      <c r="CL3" s="3">
-        <v>1.8502068519592201</v>
-      </c>
-      <c r="CM3" s="3">
-        <v>2.07061767578125</v>
-      </c>
-      <c r="CN3" s="3">
-        <v>1.80994272232055</v>
-      </c>
-      <c r="CO3" s="3">
-        <v>1.8397521972656199</v>
-      </c>
-      <c r="CP3" s="3">
-        <v>2.4657964706420898</v>
-      </c>
-      <c r="CQ3" s="3">
-        <v>2.1114373207092201</v>
-      </c>
-      <c r="CR3" s="3">
-        <v>2.1304249763488698</v>
-      </c>
-      <c r="CS3" s="3">
-        <v>2.3811006546020499</v>
-      </c>
-      <c r="CT3" s="3">
-        <v>2.5472283363342201</v>
-      </c>
-      <c r="CU3" s="3">
-        <v>2.2812438011169398</v>
-      </c>
-      <c r="CV3" s="3">
-        <v>2.0804238319396902</v>
-      </c>
-      <c r="CW3" s="3">
-        <v>2.2812294960021902</v>
-      </c>
-      <c r="CX3" s="4">
-        <v>2.2001814842224099</v>
+      <c r="C15" s="5">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1">
+        <v>40</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45</v>
+      </c>
+      <c r="K15" s="1">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1">
+        <v>55</v>
+      </c>
+      <c r="M15" s="1">
+        <v>60</v>
+      </c>
+      <c r="N15" s="1">
+        <v>65</v>
+      </c>
+      <c r="O15" s="1">
+        <v>70</v>
+      </c>
+      <c r="P15" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>80</v>
+      </c>
+      <c r="R15" s="1">
+        <v>85</v>
+      </c>
+      <c r="S15" s="1">
+        <v>90</v>
+      </c>
+      <c r="T15" s="1">
+        <v>95</v>
+      </c>
+      <c r="U15" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11">
+        <v>9.1657081901803703E-2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.160683513766469</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.222868268663762</v>
+      </c>
+      <c r="F16" s="9">
+        <v>6.4994197550827998E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>6.9048542653872294E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3.0586208165130701E-2</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3.7252291615075997E-2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2.9490394604272201E-2</v>
+      </c>
+      <c r="K16" s="9">
+        <v>3.00124366781012E-2</v>
+      </c>
+      <c r="L16" s="9">
+        <v>2.52751008603554E-2</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1.9029600850020499E-2</v>
+      </c>
+      <c r="N16" s="9">
+        <v>2.2326041899643899E-2</v>
+      </c>
+      <c r="O16" s="9">
+        <v>2.6528879087871E-2</v>
+      </c>
+      <c r="P16" s="9">
+        <v>2.38830694381768E-2</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>2.6279992279199402E-2</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1.96346000360355E-2</v>
+      </c>
+      <c r="S16" s="9">
+        <v>2.6563419627298801E-2</v>
+      </c>
+      <c r="T16" s="9">
+        <v>2.9623490516528E-2</v>
+      </c>
+      <c r="U16" s="10">
+        <v>2.0328042421685601E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>10</v>
+      </c>
+      <c r="D37" s="1">
+        <v>15</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20</v>
+      </c>
+      <c r="F37" s="1">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1">
+        <v>30</v>
+      </c>
+      <c r="H37" s="1">
+        <v>35</v>
+      </c>
+      <c r="I37" s="1">
+        <v>40</v>
+      </c>
+      <c r="J37" s="1">
+        <v>45</v>
+      </c>
+      <c r="K37" s="1">
+        <v>50</v>
+      </c>
+      <c r="L37" s="1">
+        <v>55</v>
+      </c>
+      <c r="M37" s="1">
+        <v>60</v>
+      </c>
+      <c r="N37" s="1">
+        <v>65</v>
+      </c>
+      <c r="O37" s="1">
+        <v>70</v>
+      </c>
+      <c r="P37" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>80</v>
+      </c>
+      <c r="R37" s="1">
+        <v>85</v>
+      </c>
+      <c r="S37" s="1">
+        <v>90</v>
+      </c>
+      <c r="T37" s="1">
+        <v>95</v>
+      </c>
+      <c r="U37" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2.99930572509765E-2</v>
+      </c>
+      <c r="F38" s="9">
+        <v>4.9998760223388602E-2</v>
+      </c>
+      <c r="G38" s="9">
+        <v>6.9997310638427707E-2</v>
+      </c>
+      <c r="H38" s="9">
+        <v>8.9993476867675698E-2</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.12996912002563399</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.15990257263183499</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0.20994186401367099</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.22997617721557601</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0.28002262115478499</v>
+      </c>
+      <c r="N38" s="9">
+        <v>0.319960117340087</v>
+      </c>
+      <c r="O38" s="9">
+        <v>0.37997961044311501</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0.440003871917724</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0.53996324539184504</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0.60988426208496005</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0.66998958587646396</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0.74998855590820301</v>
+      </c>
+      <c r="U38" s="10">
+        <v>0.83000421524047796</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>10</v>
+      </c>
+      <c r="D42" s="1">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1">
+        <v>25</v>
+      </c>
+      <c r="G42" s="1">
+        <v>30</v>
+      </c>
+      <c r="H42" s="1">
+        <v>35</v>
+      </c>
+      <c r="I42" s="1">
+        <v>40</v>
+      </c>
+      <c r="J42" s="1">
+        <v>45</v>
+      </c>
+      <c r="K42" s="1">
+        <v>50</v>
+      </c>
+      <c r="L42" s="1">
+        <v>55</v>
+      </c>
+      <c r="M42" s="1">
+        <v>60</v>
+      </c>
+      <c r="N42" s="1">
+        <v>65</v>
+      </c>
+      <c r="O42" s="1">
+        <v>70</v>
+      </c>
+      <c r="P42" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>80</v>
+      </c>
+      <c r="R42" s="1">
+        <v>85</v>
+      </c>
+      <c r="S42" s="1">
+        <v>90</v>
+      </c>
+      <c r="T42" s="1">
+        <v>95</v>
+      </c>
+      <c r="U42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.13001918792724601</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.289993286132812</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.319976806640625</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.370008945465087</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.71000337600707997</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0.62000989913940396</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.89995384216308505</v>
+      </c>
+      <c r="J43" s="9">
+        <v>1.2101030349731401</v>
+      </c>
+      <c r="K43" s="9">
+        <v>1.43999576568603</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1.5899729728698699</v>
+      </c>
+      <c r="M43" s="9">
+        <v>1.6000008583068801</v>
+      </c>
+      <c r="N43" s="9">
+        <v>1.88005924224853</v>
+      </c>
+      <c r="O43" s="9">
+        <v>2.2399520874023402</v>
+      </c>
+      <c r="P43" s="9">
+        <v>2.4898481369018501</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>2.77005910873413</v>
+      </c>
+      <c r="R43" s="9">
+        <v>3.1700205802917401</v>
+      </c>
+      <c r="S43" s="9">
+        <v>3.2299494743347101</v>
+      </c>
+      <c r="T43" s="9">
+        <v>3.6999726295471098</v>
+      </c>
+      <c r="U43" s="10">
+        <v>4.6900820732116699</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/resault_table.xlsx
+++ b/resault_table.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -490,11 +491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150530304"/>
-        <c:axId val="150529728"/>
+        <c:axId val="301793280"/>
+        <c:axId val="173660352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150530304"/>
+        <c:axId val="301793280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,12 +507,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150529728"/>
+        <c:crossAx val="173660352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150529728"/>
+        <c:axId val="173660352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150530304"/>
+        <c:crossAx val="301793280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -808,11 +809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150535488"/>
-        <c:axId val="150534912"/>
+        <c:axId val="140053312"/>
+        <c:axId val="140113536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150535488"/>
+        <c:axId val="140053312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,12 +845,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150534912"/>
+        <c:crossAx val="140113536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150534912"/>
+        <c:axId val="140113536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150535488"/>
+        <c:crossAx val="140053312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1132,11 +1133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309677440"/>
-        <c:axId val="309676864"/>
+        <c:axId val="140115264"/>
+        <c:axId val="142704640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309677440"/>
+        <c:axId val="140115264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,12 +1169,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309676864"/>
+        <c:crossAx val="142704640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309676864"/>
+        <c:axId val="142704640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309677440"/>
+        <c:crossAx val="140115264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1493,11 +1494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309679744"/>
-        <c:axId val="309679168"/>
+        <c:axId val="142706944"/>
+        <c:axId val="142707520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309679744"/>
+        <c:axId val="142706944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,12 +1530,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309679168"/>
+        <c:crossAx val="142707520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309679168"/>
+        <c:axId val="142707520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,7 +1566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309679744"/>
+        <c:crossAx val="142706944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2033,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42:U43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
